--- a/hardware/kicad/assembly/bwlc1a-bom.xlsx
+++ b/hardware/kicad/assembly/bwlc1a-bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEN BUSTAMAN\Documents\GitHub\bwlc1a\hardware\kicad\assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regia\Documents\GitHub\bwlc1a\hardware\kicad\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F2B19-D94A-4F61-9EE8-8ABD460829BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D53001-6B2A-4151-8DF8-16092B1BFF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9AE7824-4BDA-471E-B6C5-D254490EDEB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B9AE7824-4BDA-471E-B6C5-D254490EDEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="bwlc1a" sheetId="2" r:id="rId1"/>
@@ -580,9 +580,6 @@
     <t>Nano SIM</t>
   </si>
   <si>
-    <t>GCT_SIM8051-6-0-14-00-X-REVD:GCT_SIM8051-6-0-14-00-X-REVD</t>
-  </si>
-  <si>
     <t>Pluggable Gold 1.35mm Deck -40℃~+85℃ 260℃ NanoSIM SMD SIM Card Connectors ROHS</t>
   </si>
   <si>
@@ -1193,6 +1190,9 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/RF-Connectors-Coaxial-Connectors_BAT-WIRELESS-BWIPX-1-001E_C496552.html</t>
+  </si>
+  <si>
+    <t>SIM-SMD_SMN-304:SIM-SMD_SMN-304</t>
   </si>
 </sst>
 </file>
@@ -1635,27 +1635,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE07D92-BFF6-47AA-AFEF-050322E2BFD9}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="132.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="132.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1693,12 +1693,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1731,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1769,12 +1769,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1807,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2263,7 +2263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2692,115 +2692,115 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
         <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
       </c>
       <c r="F28" t="s">
         <v>176</v>
       </c>
       <c r="G28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" t="s">
         <v>178</v>
       </c>
-      <c r="H28" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>180</v>
-      </c>
-      <c r="L28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" t="s">
         <v>183</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E29" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
         <v>379</v>
       </c>
-      <c r="H29" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
         <v>185</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>375</v>
+      </c>
+      <c r="H30" t="s">
         <v>186</v>
       </c>
-      <c r="G30" t="s">
-        <v>376</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>374</v>
+      </c>
+      <c r="L30" t="s">
         <v>187</v>
       </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2812,13 +2812,13 @@
         <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
         <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
@@ -2833,12 +2833,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2850,13 +2850,13 @@
         <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
         <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -2871,12 +2871,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2885,568 +2885,568 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" t="s">
         <v>198</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>201</v>
+      </c>
+      <c r="L33" t="s">
         <v>200</v>
       </c>
-      <c r="H33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
-        <v>202</v>
-      </c>
-      <c r="L33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
         <v>204</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
         <v>205</v>
       </c>
-      <c r="F34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
         <v>207</v>
       </c>
-      <c r="H34" t="s">
-        <v>206</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" t="s">
-        <v>209</v>
-      </c>
-      <c r="L34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
         <v>211</v>
       </c>
-      <c r="F35" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" t="s">
         <v>212</v>
       </c>
-      <c r="H35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
         <v>222</v>
       </c>
-      <c r="E36" t="s">
-        <v>223</v>
-      </c>
       <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" t="s">
         <v>217</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" t="s">
         <v>219</v>
       </c>
-      <c r="H36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" t="s">
         <v>224</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>225</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" t="s">
         <v>226</v>
       </c>
-      <c r="H37" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s">
-        <v>228</v>
-      </c>
-      <c r="L37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" t="s">
         <v>231</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" t="s">
         <v>232</v>
       </c>
-      <c r="H38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s">
-        <v>234</v>
-      </c>
-      <c r="L38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
         <v>237</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" t="s">
         <v>238</v>
       </c>
-      <c r="H39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
-        <v>240</v>
-      </c>
-      <c r="L39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
         <v>243</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>245</v>
+      </c>
+      <c r="L40" t="s">
         <v>244</v>
       </c>
-      <c r="H40" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s">
-        <v>246</v>
-      </c>
-      <c r="L40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" t="s">
         <v>249</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>251</v>
+      </c>
+      <c r="L41" t="s">
         <v>250</v>
       </c>
-      <c r="H41" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" t="s">
-        <v>252</v>
-      </c>
-      <c r="L41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" t="s">
         <v>255</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>257</v>
+      </c>
+      <c r="L42" t="s">
         <v>256</v>
       </c>
-      <c r="H42" t="s">
-        <v>218</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
         <v>260</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>261</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" t="s">
         <v>262</v>
       </c>
-      <c r="H43" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" t="s">
         <v>267</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>269</v>
+      </c>
+      <c r="L44" t="s">
         <v>268</v>
       </c>
-      <c r="H44" t="s">
-        <v>218</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s">
-        <v>270</v>
-      </c>
-      <c r="L44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" t="s">
         <v>272</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>273</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s">
         <v>274</v>
       </c>
-      <c r="H45" t="s">
-        <v>218</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>276</v>
-      </c>
-      <c r="L45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
         <v>279</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>281</v>
+      </c>
+      <c r="L46" t="s">
         <v>280</v>
       </c>
-      <c r="H46" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>282</v>
-      </c>
-      <c r="L46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" t="s">
         <v>284</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" t="s">
-        <v>285</v>
-      </c>
       <c r="G47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
         <v>187</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>375</v>
-      </c>
-      <c r="L47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3458,13 +3458,13 @@
         <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G48" t="s">
         <v>105</v>
       </c>
       <c r="H48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -3479,12 +3479,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3496,13 +3496,13 @@
         <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G49" t="s">
         <v>105</v>
       </c>
       <c r="H49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I49" t="s">
         <v>20</v>
@@ -3517,12 +3517,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3534,13 +3534,13 @@
         <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
         <v>105</v>
       </c>
       <c r="H50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
@@ -3555,12 +3555,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3572,13 +3572,13 @@
         <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
         <v>105</v>
       </c>
       <c r="H51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
@@ -3593,50 +3593,50 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" t="s">
         <v>295</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" t="s">
-        <v>302</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" t="s">
         <v>296</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>299</v>
+      </c>
+      <c r="L52" t="s">
         <v>298</v>
       </c>
-      <c r="H52" t="s">
-        <v>297</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" t="s">
-        <v>300</v>
-      </c>
-      <c r="L52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3645,332 +3645,332 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>305</v>
+      </c>
+      <c r="H53" t="s">
         <v>304</v>
       </c>
-      <c r="F53" t="s">
-        <v>304</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>307</v>
+      </c>
+      <c r="L53" t="s">
         <v>306</v>
       </c>
-      <c r="H53" t="s">
-        <v>305</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" t="s">
-        <v>308</v>
-      </c>
-      <c r="L53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" t="s">
         <v>309</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" t="s">
+        <v>311</v>
+      </c>
+      <c r="H54" t="s">
         <v>310</v>
       </c>
-      <c r="F54" t="s">
-        <v>310</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s">
         <v>312</v>
       </c>
-      <c r="H54" t="s">
-        <v>311</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
-        <v>314</v>
-      </c>
-      <c r="L54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" t="s">
         <v>316</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>318</v>
+      </c>
+      <c r="H55" t="s">
         <v>317</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>320</v>
+      </c>
+      <c r="L55" t="s">
         <v>319</v>
       </c>
-      <c r="H55" t="s">
-        <v>318</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
-        <v>321</v>
-      </c>
-      <c r="L55" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" t="s">
         <v>324</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" t="s">
-        <v>331</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>326</v>
+      </c>
+      <c r="H56" t="s">
         <v>325</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>328</v>
+      </c>
+      <c r="L56" t="s">
         <v>327</v>
       </c>
-      <c r="H56" t="s">
-        <v>326</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" t="s">
-        <v>329</v>
-      </c>
-      <c r="L56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>337</v>
+      </c>
+      <c r="E57" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57" t="s">
         <v>332</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>338</v>
-      </c>
-      <c r="E57" t="s">
-        <v>339</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
+        <v>334</v>
+      </c>
+      <c r="H57" t="s">
         <v>333</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>336</v>
+      </c>
+      <c r="L57" t="s">
         <v>335</v>
       </c>
-      <c r="H57" t="s">
-        <v>334</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" t="s">
-        <v>337</v>
-      </c>
-      <c r="L57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" t="s">
         <v>340</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" t="s">
+        <v>342</v>
+      </c>
+      <c r="H58" t="s">
         <v>341</v>
       </c>
-      <c r="F58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
         <v>343</v>
       </c>
-      <c r="H58" t="s">
-        <v>342</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
+        <v>345</v>
+      </c>
+      <c r="L58" t="s">
         <v>344</v>
       </c>
-      <c r="K58" t="s">
-        <v>346</v>
-      </c>
-      <c r="L58" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>347</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" t="s">
         <v>348</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>301</v>
-      </c>
-      <c r="E59" t="s">
-        <v>354</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" t="s">
         <v>349</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s">
         <v>351</v>
       </c>
-      <c r="H59" t="s">
-        <v>350</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" t="s">
-        <v>353</v>
-      </c>
-      <c r="L59" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>360</v>
+      </c>
+      <c r="E60" t="s">
+        <v>361</v>
+      </c>
+      <c r="F60" t="s">
         <v>355</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>361</v>
-      </c>
-      <c r="E60" t="s">
-        <v>362</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>357</v>
+      </c>
+      <c r="H60" t="s">
         <v>356</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>359</v>
+      </c>
+      <c r="L60" t="s">
         <v>358</v>
       </c>
-      <c r="H60" t="s">
-        <v>357</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" t="s">
-        <v>360</v>
-      </c>
-      <c r="L60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
+      </c>
+      <c r="F61" t="s">
         <v>363</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>369</v>
-      </c>
-      <c r="E61" t="s">
-        <v>370</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>365</v>
+      </c>
+      <c r="H61" t="s">
         <v>364</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>367</v>
+      </c>
+      <c r="L61" t="s">
         <v>366</v>
-      </c>
-      <c r="H61" t="s">
-        <v>365</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" t="s">
-        <v>368</v>
-      </c>
-      <c r="L61" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
